--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_91.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_41</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1510324483775811</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2546296296296297</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>[['A', 'D', 'G', 'A', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(61.76, 69.34)]</t>
+          <t>[['B', 'E', 'A', 'B', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.13, 14.45)]</t>
+          <t>[('0:01:07.115538', '0:01:12.490957')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:51.652811', '0:01:11.192403')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05042372881355933</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D:7']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1274509803921569</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.55, 15.79)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(242.22, 244.56)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07410714285714286</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G/3']]</t>
-        </is>
+          <t>jaah_59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04071947952544967</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['Bb', 'C:min7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
+          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.829138, 15.586961)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:00.370000', '0:00:02.670000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:05.020000', '0:01:11.940000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06828087167070218</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Db:7', 'Db:7']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09584178498985801</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G'], ['G', 'C:7', 'C:7']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (82.77, 87.64)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07), (7.27, 11.55)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:22.518117', '0:00:27.754217')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.04072398190045249</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1299019607843137</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['E', 'A', 'E'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.7, 11.86)]</t>
+          <t>[['A', 'D', 'A'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000'), ('0:00:12.971000', '0:00:19.435000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.302038', '0:00:05.439841'), ('0:00:17.374897', '0:00:24.108684')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09521739130434782</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb'], ['Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'C/7', 'C/b7'], ['C', 'C/b7', 'F']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79), (8.7, 12.06), (103.35, 106.64)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (52.386, 56.294), (35.532, 40.124)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2871794871794872</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.55</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1534526854219949</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.465419, 19.151224)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.66, 17.1), (105.0, 108.24), (0.78, 5.26)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.16, 42.24), (80.42, 84.64), (10.82, 17.08)]</t>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4022988505747126</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0761904761904762</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(103.520929, 108.664149)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['G', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E', 'A:min', 'A:min/b3']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(27.6, 33.5), (16.38, 23.16)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564), (53.795396, 59.623605)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_97</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:7/F', 'D#']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.330793, 22.635827)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(47.9, 51.04)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(26.96, 30.84), (15.06, 20.56)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2046783625730994</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'D/b7', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D/5', 'E/3', 'A', 'A', 'D']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(29.965374, 37.291269)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.567886, 17.908476)]</t>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2401960784313725</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(61.683832, 71.056785)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(59.9, 69.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
